--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sreej\Downloads\SeleniumAutomationFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C5B23E-65A1-41C3-91F8-695CEA8E9522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9B5FFB-FFDF-4124-BDBA-D292E7E35DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="2112" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{DD6610EB-ADF1-478B-9A8F-282F36DB2CA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DD6610EB-ADF1-478B-9A8F-282F36DB2CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>testname</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>admin1231</t>
+  </si>
+  <si>
+    <t>chrome</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sreej\Downloads\SeleniumAutomationFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sreej\IdeaProjects\SeleniumAutomationFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9B5FFB-FFDF-4124-BDBA-D292E7E35DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D594FE9F-043C-4E91-B984-63A386D942F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DD6610EB-ADF1-478B-9A8F-282F36DB2CA8}"/>
   </bookViews>
@@ -61,61 +61,61 @@
     <t>To check whether this test is executed</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Sreejith</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>admin1234</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>amazonTest</t>
+  </si>
+  <si>
+    <t>To check amazonTest  is executed</t>
+  </si>
+  <si>
+    <t>menutext</t>
+  </si>
+  <si>
+    <t>Laptops</t>
+  </si>
+  <si>
+    <t>admin1231</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>Sreejith</t>
-  </si>
-  <si>
-    <t>Sneha</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>admin1234</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>amazonTest</t>
-  </si>
-  <si>
-    <t>To check amazonTest  is executed</t>
-  </si>
-  <si>
-    <t>menutext</t>
-  </si>
-  <si>
-    <t>Laptops</t>
-  </si>
-  <si>
-    <t>admin1231</t>
-  </si>
-  <si>
-    <t>chrome</t>
   </si>
 </sst>
 </file>
@@ -559,10 +559,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -585,7 +585,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,19 +604,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -627,19 +627,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -647,22 +647,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -670,22 +670,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -693,68 +693,68 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
